--- a/Racecard_20251001_4.xlsx
+++ b/Racecard_20251001_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="368">
   <si>
     <t>日期</t>
   </si>
@@ -289,6 +289,9 @@
     <t>前次調整後完成時間</t>
   </si>
   <si>
+    <t>上次最後 400</t>
+  </si>
+  <si>
     <t>馬名2</t>
   </si>
   <si>
@@ -316,7 +319,16 @@
     <t>2次調整後平均秒速</t>
   </si>
   <si>
-    <t>2次較快完成秒速</t>
+    <t>近2次較快完成秒速</t>
+  </si>
+  <si>
+    <t>近2次較快完成最後 400</t>
+  </si>
+  <si>
+    <t>近2次較快完成最後 800</t>
+  </si>
+  <si>
+    <t>前次最後 400</t>
   </si>
   <si>
     <t>ST</t>
@@ -576,6 +588,30 @@
   </si>
   <si>
     <t>-5</t>
+  </si>
+  <si>
+    <t>+7</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>+18</t>
+  </si>
+  <si>
+    <t>+15</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>+11</t>
   </si>
   <si>
     <t>1.09.69</t>
@@ -1471,13 +1507,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW15"/>
+  <dimension ref="A1:DA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:105">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1781,25 +1817,37 @@
       <c r="CW1" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="2" spans="1:101">
+    <row r="2" spans="1:105">
       <c r="A2" s="2">
         <v>45931</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G2">
         <v>1200</v>
@@ -1808,85 +1856,88 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L2">
         <v>135</v>
       </c>
       <c r="M2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O2">
         <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="R2">
         <v>59</v>
       </c>
       <c r="S2" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+      <c r="T2">
+        <v>1096</v>
       </c>
       <c r="U2" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="W2">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Z2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AB2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="AC2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AD2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AE2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="AF2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AG2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AH2">
         <v>2024741</v>
       </c>
       <c r="AI2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="AJ2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AK2">
         <v>1000</v>
       </c>
       <c r="AL2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AM2">
         <v>13</v>
       </c>
       <c r="AN2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AO2">
         <v>1.6</v>
@@ -1910,10 +1961,10 @@
         <v>33.52</v>
       </c>
       <c r="AV2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="AZ2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="BA2">
         <v>13.97</v>
@@ -1934,48 +1985,57 @@
         <v>42.94</v>
       </c>
       <c r="BJ2" t="s">
-        <v>302</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>118</v>
+        <v>314</v>
+      </c>
+      <c r="CN2">
+        <v>22.4</v>
       </c>
       <c r="CO2" t="s">
-        <v>302</v>
+        <v>122</v>
       </c>
       <c r="CP2" t="s">
-        <v>335</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>302</v>
-      </c>
-      <c r="CT2">
-        <v>69.59</v>
-      </c>
-      <c r="CV2">
+        <v>314</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>347</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>314</v>
+      </c>
+      <c r="CU2">
         <v>69.59</v>
       </c>
       <c r="CW2">
         <v>69.59</v>
       </c>
+      <c r="CX2">
+        <v>69.59</v>
+      </c>
+      <c r="CY2">
+        <v>22.4</v>
+      </c>
+      <c r="CZ2">
+        <v>43.15</v>
+      </c>
     </row>
-    <row r="3" spans="1:101">
+    <row r="3" spans="1:105">
       <c r="A3" s="2">
         <v>45931</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G3">
         <v>1200</v>
@@ -1984,88 +2044,91 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L3">
         <v>134</v>
       </c>
       <c r="M3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O3">
         <v>12</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="R3">
         <v>58</v>
       </c>
       <c r="S3" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+      <c r="T3">
+        <v>1023</v>
       </c>
       <c r="U3" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="V3" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="W3">
         <v>5</v>
       </c>
       <c r="Y3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Z3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="AA3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="AB3" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="AC3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="AD3" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AE3" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="AF3" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AG3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AH3">
         <v>2024546</v>
       </c>
       <c r="AI3" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="AJ3" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AK3">
         <v>1200</v>
       </c>
       <c r="AL3" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AM3">
         <v>6</v>
       </c>
       <c r="AN3" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AO3">
         <v>30</v>
@@ -2089,10 +2152,10 @@
         <v>46.1</v>
       </c>
       <c r="AV3" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="AZ3" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="BA3">
         <v>24.34</v>
@@ -2113,48 +2176,57 @@
         <v>45.692</v>
       </c>
       <c r="BJ3" t="s">
-        <v>303</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>119</v>
+        <v>315</v>
+      </c>
+      <c r="CN3">
+        <v>23.11</v>
       </c>
       <c r="CO3" t="s">
-        <v>303</v>
+        <v>123</v>
       </c>
       <c r="CP3" t="s">
-        <v>336</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>303</v>
-      </c>
-      <c r="CT3">
-        <v>70.03</v>
-      </c>
-      <c r="CV3">
+        <v>315</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>348</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>315</v>
+      </c>
+      <c r="CU3">
         <v>70.03</v>
       </c>
       <c r="CW3">
         <v>70.03</v>
       </c>
+      <c r="CX3">
+        <v>70.03</v>
+      </c>
+      <c r="CY3">
+        <v>23.11</v>
+      </c>
+      <c r="CZ3">
+        <v>45.35</v>
+      </c>
     </row>
-    <row r="4" spans="1:101">
+    <row r="4" spans="1:105">
       <c r="A4" s="2">
         <v>45931</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G4">
         <v>1200</v>
@@ -2163,88 +2235,91 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L4">
         <v>130</v>
       </c>
       <c r="M4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O4">
         <v>8</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="R4">
         <v>54</v>
       </c>
       <c r="S4" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+      <c r="T4">
+        <v>1070</v>
       </c>
       <c r="U4" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="V4" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="W4">
         <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Z4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AB4" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AC4" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="AD4" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AE4" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="AF4" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="AG4" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AH4">
         <v>2024738</v>
       </c>
       <c r="AI4" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="AJ4" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AK4">
         <v>1200</v>
       </c>
       <c r="AL4" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AM4">
         <v>10</v>
       </c>
       <c r="AN4" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AO4">
         <v>67</v>
@@ -2268,10 +2343,10 @@
         <v>45.71</v>
       </c>
       <c r="AV4" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="AZ4" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="BA4">
         <v>24.35</v>
@@ -2292,28 +2367,28 @@
         <v>46.684</v>
       </c>
       <c r="BJ4" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="BK4">
         <v>2024531</v>
       </c>
       <c r="BL4" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="BM4" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="BN4">
         <v>1200</v>
       </c>
       <c r="BO4" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="BP4">
         <v>8</v>
       </c>
       <c r="BQ4" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="BR4">
         <v>85</v>
@@ -2337,10 +2412,10 @@
         <v>45.73</v>
       </c>
       <c r="BY4" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="CC4" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="CD4">
         <v>24.75</v>
@@ -2361,57 +2436,69 @@
         <v>44.063</v>
       </c>
       <c r="CM4" t="s">
-        <v>330</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>120</v>
+        <v>342</v>
+      </c>
+      <c r="CN4">
+        <v>24.52</v>
       </c>
       <c r="CO4" t="s">
-        <v>304</v>
+        <v>124</v>
       </c>
       <c r="CP4" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="CQ4" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="CR4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="CS4" t="s">
-        <v>351</v>
-      </c>
-      <c r="CT4">
+        <v>358</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>363</v>
+      </c>
+      <c r="CU4">
         <v>71.03</v>
       </c>
-      <c r="CU4">
+      <c r="CV4">
         <v>68.81</v>
       </c>
-      <c r="CV4">
+      <c r="CW4">
         <v>69.92</v>
       </c>
-      <c r="CW4">
+      <c r="CX4">
         <v>68.81</v>
       </c>
+      <c r="CY4">
+        <v>22.36</v>
+      </c>
+      <c r="CZ4">
+        <v>43.94</v>
+      </c>
+      <c r="DA4">
+        <v>22.36</v>
+      </c>
     </row>
-    <row r="5" spans="1:101">
+    <row r="5" spans="1:105">
       <c r="A5" s="2">
         <v>45931</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G5">
         <v>1200</v>
@@ -2420,84 +2507,87 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L5">
         <v>128</v>
       </c>
       <c r="M5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O5">
         <v>11</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="R5">
         <v>52</v>
       </c>
       <c r="S5" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="T5">
+        <v>1156</v>
       </c>
       <c r="U5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="W5">
         <v>4</v>
       </c>
       <c r="Y5" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Z5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA5" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="AB5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AD5" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="AE5" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="AF5" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="AG5" t="s">
-        <v>258</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>121</v>
+        <v>270</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:101">
+    <row r="6" spans="1:105">
       <c r="A6" s="2">
         <v>45931</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G6">
         <v>1200</v>
@@ -2506,84 +2596,87 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L6">
         <v>128</v>
       </c>
       <c r="M6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O6">
         <v>10</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="R6">
         <v>52</v>
       </c>
       <c r="S6" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="T6">
+        <v>1197</v>
       </c>
       <c r="U6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Z6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA6" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AB6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AD6" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="AE6" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="AF6" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AG6" t="s">
-        <v>258</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>122</v>
+        <v>270</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:101">
+    <row r="7" spans="1:105">
       <c r="A7" s="2">
         <v>45931</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7">
         <v>1200</v>
@@ -2592,88 +2685,91 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L7">
         <v>127</v>
       </c>
       <c r="M7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O7">
         <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="R7">
         <v>51</v>
       </c>
       <c r="S7" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="T7">
+        <v>1150</v>
       </c>
       <c r="U7" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="V7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="W7">
         <v>6</v>
       </c>
       <c r="Y7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Z7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AB7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="AC7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="AD7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="AE7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="AF7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AG7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AH7">
         <v>2024834</v>
       </c>
       <c r="AI7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="AJ7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AK7">
         <v>1200</v>
       </c>
       <c r="AL7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AM7">
         <v>11</v>
       </c>
       <c r="AN7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AO7">
         <v>46</v>
@@ -2697,10 +2793,10 @@
         <v>46.3</v>
       </c>
       <c r="AV7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AZ7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="BA7">
         <v>24.23</v>
@@ -2721,48 +2817,57 @@
         <v>45.966</v>
       </c>
       <c r="BJ7" t="s">
-        <v>305</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>123</v>
+        <v>317</v>
+      </c>
+      <c r="CN7">
+        <v>23.34</v>
       </c>
       <c r="CO7" t="s">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c r="CP7" t="s">
-        <v>338</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>305</v>
-      </c>
-      <c r="CT7">
-        <v>70.2</v>
-      </c>
-      <c r="CV7">
+        <v>317</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>350</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>317</v>
+      </c>
+      <c r="CU7">
         <v>70.2</v>
       </c>
       <c r="CW7">
         <v>70.2</v>
       </c>
+      <c r="CX7">
+        <v>70.2</v>
+      </c>
+      <c r="CY7">
+        <v>23.34</v>
+      </c>
+      <c r="CZ7">
+        <v>45.93</v>
+      </c>
     </row>
-    <row r="8" spans="1:101">
+    <row r="8" spans="1:105">
       <c r="A8" s="2">
         <v>45931</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G8">
         <v>1200</v>
@@ -2771,88 +2876,91 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L8">
         <v>126</v>
       </c>
       <c r="M8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O8">
         <v>9</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="R8">
         <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="T8">
+        <v>1097</v>
       </c>
       <c r="U8" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="V8" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="W8">
         <v>4</v>
       </c>
       <c r="Y8" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Z8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA8" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AB8" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AC8" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AD8" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AE8" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="AF8" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AG8" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AH8">
         <v>2024719</v>
       </c>
       <c r="AI8" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AJ8" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AK8">
         <v>1200</v>
       </c>
       <c r="AL8" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AM8">
         <v>12</v>
       </c>
       <c r="AN8" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AO8">
         <v>12</v>
@@ -2876,10 +2984,10 @@
         <v>45.99</v>
       </c>
       <c r="AV8" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AZ8" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="BA8">
         <v>23.81</v>
@@ -2900,48 +3008,57 @@
         <v>46.799</v>
       </c>
       <c r="BJ8" t="s">
-        <v>306</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>124</v>
+        <v>318</v>
+      </c>
+      <c r="CN8">
+        <v>24.23</v>
       </c>
       <c r="CO8" t="s">
-        <v>306</v>
+        <v>128</v>
       </c>
       <c r="CP8" t="s">
-        <v>339</v>
-      </c>
-      <c r="CS8" t="s">
-        <v>306</v>
-      </c>
-      <c r="CT8">
-        <v>70.61</v>
-      </c>
-      <c r="CV8">
+        <v>318</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>351</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>318</v>
+      </c>
+      <c r="CU8">
         <v>70.61</v>
       </c>
       <c r="CW8">
         <v>70.61</v>
       </c>
+      <c r="CX8">
+        <v>70.61</v>
+      </c>
+      <c r="CY8">
+        <v>24.23</v>
+      </c>
+      <c r="CZ8">
+        <v>46.73</v>
+      </c>
     </row>
-    <row r="9" spans="1:101">
+    <row r="9" spans="1:105">
       <c r="A9" s="2">
         <v>45931</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G9">
         <v>1200</v>
@@ -2950,88 +3067,91 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L9">
         <v>125</v>
       </c>
       <c r="M9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O9">
         <v>13</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="R9">
         <v>49</v>
       </c>
       <c r="S9" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+      <c r="T9">
+        <v>1122</v>
       </c>
       <c r="U9" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="V9" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="W9">
         <v>5</v>
       </c>
       <c r="Y9" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Z9" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AA9" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="AB9" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AC9" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AD9" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="AE9" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="AF9" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG9" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AH9">
         <v>2025024</v>
       </c>
       <c r="AI9" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AJ9" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AK9">
         <v>1200</v>
       </c>
       <c r="AL9" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AM9">
         <v>4</v>
       </c>
       <c r="AN9" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AO9">
         <v>2.5</v>
@@ -3055,10 +3175,10 @@
         <v>45.71</v>
       </c>
       <c r="AV9" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AZ9" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="BA9">
         <v>23.99</v>
@@ -3079,28 +3199,28 @@
         <v>45.742</v>
       </c>
       <c r="BJ9" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="BK9">
         <v>2025007</v>
       </c>
       <c r="BL9" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="BM9" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="BN9">
         <v>1200</v>
       </c>
       <c r="BO9" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="BP9">
         <v>1</v>
       </c>
       <c r="BQ9" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="BR9">
         <v>5.5</v>
@@ -3124,10 +3244,10 @@
         <v>46.22</v>
       </c>
       <c r="BY9" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="CC9" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="CD9">
         <v>24.4</v>
@@ -3148,57 +3268,69 @@
         <v>45.22199999999999</v>
       </c>
       <c r="CM9" t="s">
-        <v>331</v>
-      </c>
-      <c r="CN9" t="s">
-        <v>125</v>
+        <v>343</v>
+      </c>
+      <c r="CN9">
+        <v>23.3</v>
       </c>
       <c r="CO9" t="s">
-        <v>307</v>
+        <v>129</v>
       </c>
       <c r="CP9" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="CQ9" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="CR9" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="CS9" t="s">
-        <v>352</v>
-      </c>
-      <c r="CT9">
+        <v>359</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>364</v>
+      </c>
+      <c r="CU9">
         <v>69.73</v>
       </c>
-      <c r="CU9">
+      <c r="CV9">
         <v>69.62</v>
       </c>
-      <c r="CV9">
+      <c r="CW9">
         <v>69.68000000000001</v>
       </c>
-      <c r="CW9">
+      <c r="CX9">
         <v>69.62</v>
       </c>
+      <c r="CY9">
+        <v>22.7</v>
+      </c>
+      <c r="CZ9">
+        <v>45.12</v>
+      </c>
+      <c r="DA9">
+        <v>22.7</v>
+      </c>
     </row>
-    <row r="10" spans="1:101">
+    <row r="10" spans="1:105">
       <c r="A10" s="2">
         <v>45931</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G10">
         <v>1200</v>
@@ -3207,88 +3339,91 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L10">
         <v>123</v>
       </c>
       <c r="M10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O10">
         <v>14</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="R10">
         <v>47</v>
       </c>
       <c r="S10" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="T10">
+        <v>1118</v>
       </c>
       <c r="U10" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="V10" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="W10">
         <v>4</v>
       </c>
       <c r="Y10" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Z10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AB10" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="AC10" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AD10" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AE10" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="AF10" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="AG10" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AH10">
         <v>2025039</v>
       </c>
       <c r="AI10" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AJ10" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AK10">
         <v>1200</v>
       </c>
       <c r="AL10" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AM10">
         <v>9</v>
       </c>
       <c r="AN10" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AO10">
         <v>137</v>
@@ -3312,10 +3447,10 @@
         <v>46.73</v>
       </c>
       <c r="AV10" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AZ10" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="BA10">
         <v>23.92</v>
@@ -3336,48 +3471,57 @@
         <v>47.07</v>
       </c>
       <c r="BJ10" t="s">
-        <v>308</v>
-      </c>
-      <c r="CN10" t="s">
-        <v>126</v>
+        <v>320</v>
+      </c>
+      <c r="CN10">
+        <v>24.08</v>
       </c>
       <c r="CO10" t="s">
-        <v>308</v>
+        <v>130</v>
       </c>
       <c r="CP10" t="s">
-        <v>341</v>
-      </c>
-      <c r="CS10" t="s">
-        <v>308</v>
-      </c>
-      <c r="CT10">
-        <v>70.98999999999999</v>
-      </c>
-      <c r="CV10">
+        <v>320</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>353</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>320</v>
+      </c>
+      <c r="CU10">
         <v>70.98999999999999</v>
       </c>
       <c r="CW10">
         <v>70.98999999999999</v>
       </c>
+      <c r="CX10">
+        <v>70.98999999999999</v>
+      </c>
+      <c r="CY10">
+        <v>24.08</v>
+      </c>
+      <c r="CZ10">
+        <v>46.89</v>
+      </c>
     </row>
-    <row r="11" spans="1:101">
+    <row r="11" spans="1:105">
       <c r="A11" s="2">
         <v>45931</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G11">
         <v>1200</v>
@@ -3386,90 +3530,93 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L11">
         <v>122</v>
       </c>
       <c r="M11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O11">
         <v>5</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="R11">
         <v>46</v>
       </c>
       <c r="S11" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="T11">
+        <v>1033</v>
       </c>
       <c r="U11" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="V11" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="W11">
         <v>6</v>
       </c>
       <c r="Y11" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Z11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA11" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AB11" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AC11" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AD11" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AE11" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="AF11" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AG11" t="s">
-        <v>259</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>127</v>
+        <v>271</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:101">
+    <row r="12" spans="1:105">
       <c r="A12" s="2">
         <v>45931</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G12">
         <v>1200</v>
@@ -3478,88 +3625,91 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L12">
         <v>122</v>
       </c>
       <c r="M12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="R12">
         <v>46</v>
       </c>
       <c r="S12" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+      <c r="T12">
+        <v>1111</v>
       </c>
       <c r="U12" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="V12" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="W12">
         <v>5</v>
       </c>
       <c r="Y12" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Z12" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA12" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AB12" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="AC12" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AD12" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AE12" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="AF12" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AG12" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AH12">
         <v>2024640</v>
       </c>
       <c r="AI12" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AJ12" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AK12">
         <v>1200</v>
       </c>
       <c r="AL12" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AM12">
         <v>11</v>
       </c>
       <c r="AN12" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AO12">
         <v>8.9</v>
@@ -3583,10 +3733,10 @@
         <v>47.04</v>
       </c>
       <c r="AV12" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="AZ12" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="BA12">
         <v>25.05</v>
@@ -3607,28 +3757,28 @@
         <v>45.249</v>
       </c>
       <c r="BJ12" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="BK12">
         <v>2024222</v>
       </c>
       <c r="BL12" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="BM12" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="BN12">
         <v>1200</v>
       </c>
       <c r="BO12" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="BP12">
         <v>5</v>
       </c>
       <c r="BQ12" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="BR12">
         <v>12</v>
@@ -3652,10 +3802,10 @@
         <v>45.93</v>
       </c>
       <c r="BY12" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="CC12" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="CD12">
         <v>24.13</v>
@@ -3676,57 +3826,69 @@
         <v>45.92</v>
       </c>
       <c r="CM12" t="s">
-        <v>332</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>128</v>
+        <v>344</v>
+      </c>
+      <c r="CN12">
+        <v>23.19</v>
       </c>
       <c r="CO12" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="CP12" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="CQ12" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="CR12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="CS12" t="s">
-        <v>353</v>
-      </c>
-      <c r="CT12">
+        <v>360</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CU12">
         <v>70.3</v>
       </c>
-      <c r="CU12">
+      <c r="CV12">
         <v>70.05</v>
       </c>
-      <c r="CV12">
+      <c r="CW12">
         <v>70.17</v>
       </c>
-      <c r="CW12">
+      <c r="CX12">
         <v>70.05</v>
       </c>
+      <c r="CY12">
+        <v>23.41</v>
+      </c>
+      <c r="CZ12">
+        <v>45.89</v>
+      </c>
+      <c r="DA12">
+        <v>23.41</v>
+      </c>
     </row>
-    <row r="13" spans="1:101">
+    <row r="13" spans="1:105">
       <c r="A13" s="2">
         <v>45931</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G13">
         <v>1200</v>
@@ -3735,88 +3897,91 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13">
         <v>121</v>
       </c>
       <c r="M13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="R13">
         <v>45</v>
       </c>
       <c r="S13" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+      <c r="T13">
+        <v>1121</v>
       </c>
       <c r="U13" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="V13" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="W13">
         <v>5</v>
       </c>
       <c r="Y13" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Z13" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA13" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AB13" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AC13" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AD13" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="AE13" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="AF13" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AG13" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AH13">
         <v>2025026</v>
       </c>
       <c r="AI13" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AJ13" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AK13">
         <v>1200</v>
       </c>
       <c r="AL13" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AM13">
         <v>13</v>
       </c>
       <c r="AN13" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="AO13">
         <v>35</v>
@@ -3840,10 +4005,10 @@
         <v>45.56</v>
       </c>
       <c r="AV13" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="AZ13" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="BA13">
         <v>24.66</v>
@@ -3864,28 +4029,28 @@
         <v>44.97499999999999</v>
       </c>
       <c r="BJ13" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="BK13">
         <v>2024812</v>
       </c>
       <c r="BL13" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="BM13" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="BN13">
         <v>1200</v>
       </c>
       <c r="BO13" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="BP13">
         <v>2</v>
       </c>
       <c r="BQ13" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="BR13">
         <v>5.9</v>
@@ -3909,10 +4074,10 @@
         <v>46.12</v>
       </c>
       <c r="BY13" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="CC13" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="CD13">
         <v>24.13</v>
@@ -3933,57 +4098,69 @@
         <v>44.937</v>
       </c>
       <c r="CM13" t="s">
-        <v>333</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>129</v>
+        <v>345</v>
+      </c>
+      <c r="CN13">
+        <v>23.66</v>
       </c>
       <c r="CO13" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
       <c r="CP13" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="CQ13" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="CR13" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="CS13" t="s">
-        <v>354</v>
-      </c>
-      <c r="CT13">
+        <v>361</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>366</v>
+      </c>
+      <c r="CU13">
         <v>69.63</v>
       </c>
-      <c r="CU13">
+      <c r="CV13">
         <v>69.06999999999999</v>
       </c>
-      <c r="CV13">
+      <c r="CW13">
         <v>69.34999999999999</v>
       </c>
-      <c r="CW13">
+      <c r="CX13">
         <v>69.06999999999999</v>
       </c>
+      <c r="CY13">
+        <v>23.02</v>
+      </c>
+      <c r="CZ13">
+        <v>45.09</v>
+      </c>
+      <c r="DA13">
+        <v>23.02</v>
+      </c>
     </row>
-    <row r="14" spans="1:101">
+    <row r="14" spans="1:105">
       <c r="A14" s="2">
         <v>45931</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G14">
         <v>1200</v>
@@ -3992,88 +4169,91 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L14">
         <v>120</v>
       </c>
       <c r="M14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O14">
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="R14">
         <v>44</v>
       </c>
       <c r="S14" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="T14">
+        <v>1082</v>
       </c>
       <c r="U14" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="V14" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="W14">
         <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Z14" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AA14" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AB14" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AC14" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AD14" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AF14" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="AG14" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AH14">
         <v>2024097</v>
       </c>
       <c r="AI14" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AJ14" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AK14">
         <v>1200</v>
       </c>
       <c r="AL14" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AM14">
         <v>14</v>
       </c>
       <c r="AN14" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AO14">
         <v>73</v>
@@ -4097,10 +4277,10 @@
         <v>46.54</v>
       </c>
       <c r="AV14" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AZ14" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="BA14">
         <v>24.37</v>
@@ -4121,48 +4301,57 @@
         <v>45.453</v>
       </c>
       <c r="BJ14" t="s">
-        <v>311</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>130</v>
+        <v>323</v>
+      </c>
+      <c r="CN14">
+        <v>23.7</v>
       </c>
       <c r="CO14" t="s">
-        <v>311</v>
+        <v>134</v>
       </c>
       <c r="CP14" t="s">
-        <v>344</v>
-      </c>
-      <c r="CS14" t="s">
-        <v>311</v>
-      </c>
-      <c r="CT14">
-        <v>69.81999999999999</v>
-      </c>
-      <c r="CV14">
+        <v>323</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>356</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>323</v>
+      </c>
+      <c r="CU14">
         <v>69.81999999999999</v>
       </c>
       <c r="CW14">
         <v>69.81999999999999</v>
       </c>
+      <c r="CX14">
+        <v>69.81999999999999</v>
+      </c>
+      <c r="CY14">
+        <v>23.7</v>
+      </c>
+      <c r="CZ14">
+        <v>45.99</v>
+      </c>
     </row>
-    <row r="15" spans="1:101">
+    <row r="15" spans="1:105">
       <c r="A15" s="2">
         <v>45931</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G15">
         <v>1200</v>
@@ -4171,88 +4360,91 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L15">
         <v>118</v>
       </c>
       <c r="M15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O15">
         <v>7</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="R15">
         <v>42</v>
       </c>
       <c r="S15" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+      <c r="T15">
+        <v>1160</v>
       </c>
       <c r="U15" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="V15" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="W15">
         <v>5</v>
       </c>
       <c r="Y15" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Z15" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AA15" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="AB15" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AC15" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="AD15" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AE15" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="AF15" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AG15" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AH15">
         <v>2025024</v>
       </c>
       <c r="AI15" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AJ15" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AK15">
         <v>1200</v>
       </c>
       <c r="AL15" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AM15">
         <v>6</v>
       </c>
       <c r="AN15" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AO15">
         <v>6.4</v>
@@ -4276,10 +4468,10 @@
         <v>45.71</v>
       </c>
       <c r="AV15" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AZ15" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="BA15">
         <v>24.83</v>
@@ -4300,28 +4492,28 @@
         <v>44.332</v>
       </c>
       <c r="BJ15" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="BK15">
         <v>2024584</v>
       </c>
       <c r="BL15" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="BM15" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="BN15">
         <v>1200</v>
       </c>
       <c r="BO15" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="BP15">
         <v>7</v>
       </c>
       <c r="BQ15" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="BR15">
         <v>16</v>
@@ -4345,10 +4537,10 @@
         <v>45.37</v>
       </c>
       <c r="BY15" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="CC15" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="CD15">
         <v>24.42</v>
@@ -4369,37 +4561,49 @@
         <v>45.218</v>
       </c>
       <c r="CM15" t="s">
-        <v>334</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>131</v>
+        <v>346</v>
+      </c>
+      <c r="CN15">
+        <v>22.96</v>
       </c>
       <c r="CO15" t="s">
-        <v>312</v>
+        <v>135</v>
       </c>
       <c r="CP15" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="CQ15" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="CR15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="CS15" t="s">
-        <v>355</v>
-      </c>
-      <c r="CT15">
+        <v>362</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>367</v>
+      </c>
+      <c r="CU15">
         <v>69.16</v>
       </c>
-      <c r="CU15">
+      <c r="CV15">
         <v>69.64</v>
       </c>
-      <c r="CV15">
+      <c r="CW15">
         <v>69.40000000000001</v>
       </c>
-      <c r="CW15">
+      <c r="CX15">
         <v>69.16</v>
+      </c>
+      <c r="CY15">
+        <v>22.96</v>
+      </c>
+      <c r="CZ15">
+        <v>44.56</v>
+      </c>
+      <c r="DA15">
+        <v>23.28</v>
       </c>
     </row>
   </sheetData>
